--- a/BOM/BOM_COPICK_package.xlsx
+++ b/BOM/BOM_COPICK_package.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Maletin de trabajo\SEVERO OCHOA\OPENTRONS\Colony picker\COPICK_PACKAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cazorla\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FA1FB6-E9C1-4962-B64F-A3BB72418B8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Concept</t>
   </si>
@@ -59,9 +60,6 @@
     <t>3D printed parts</t>
   </si>
   <si>
-    <t>M3 screws xx mm</t>
-  </si>
-  <si>
     <t>M3 nuts</t>
   </si>
   <si>
@@ -98,9 +96,6 @@
     <t>Edmund Optics</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
@@ -156,12 +151,39 @@
   </si>
   <si>
     <t>16 GB SD card</t>
+  </si>
+  <si>
+    <t>Bosch Rexroth Connecting Component, Angle Bracket, strut profile 20 mm, groove Size 6mm</t>
+  </si>
+  <si>
+    <t>466-7354</t>
+  </si>
+  <si>
+    <t>M4 nuts</t>
+  </si>
+  <si>
+    <t>227-6849</t>
+  </si>
+  <si>
+    <t>189-579</t>
+  </si>
+  <si>
+    <t>M4 screws (20 mm)</t>
+  </si>
+  <si>
+    <t>189-563</t>
+  </si>
+  <si>
+    <t>M3 screws (12 mm)</t>
+  </si>
+  <si>
+    <t>190-456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +200,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +213,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -215,15 +243,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,307 +568,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="98.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="98.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>13</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>14</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>